--- a/extras/sample_form/slider_label_sample.xlsx
+++ b/extras/sample_form/slider_label_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\Documents\SurveyCTO\Plugins\Sliders\Slider\Slider with value\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\SurveyCTO Plugins\slider-labels\extras\sample_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B318C481-E90D-44AF-A8F0-BF56CCBB3703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFE1A4-924D-44D9-8251-3341DAE8C9DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="help-choices" sheetId="5" r:id="rId5"/>
     <sheet name="help-settings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -179,16 +179,10 @@
     <t>This is the hint text.</t>
   </si>
   <si>
-    <t>custom-slider-label(A="0", B="10", C="none")</t>
-  </si>
-  <si>
     <t>custom_value2</t>
   </si>
   <si>
     <t>Slider with pips</t>
-  </si>
-  <si>
-    <t>custom-slider-label(A="0", B="10", C="pips")</t>
   </si>
   <si>
     <t>custom_value4</t>
@@ -3016,18 +3010,12 @@
     <t>Slide at least once</t>
   </si>
   <si>
-    <t>.&lt;=6</t>
-  </si>
-  <si>
     <t>.&gt;=3</t>
   </si>
   <si>
     <t>Slide further up</t>
   </si>
   <si>
-    <t>custom-slider-label(A="0", B="10", C="labels")</t>
-  </si>
-  <si>
     <t>Slider with constraint</t>
   </si>
   <si>
@@ -3035,6 +3023,18 @@
   </si>
   <si>
     <t>Slider with constraint and required value</t>
+  </si>
+  <si>
+    <t>custom-slider-label(min="0", max="10", markers="none")</t>
+  </si>
+  <si>
+    <t>custom-slider-label(min="0", max="10", markers="labels")</t>
+  </si>
+  <si>
+    <t>custom-slider-label(min="0", max="10", markers="yes")</t>
+  </si>
+  <si>
+    <t>.&lt;=7</t>
   </si>
 </sst>
 </file>
@@ -3256,24 +3256,6 @@
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3371,6 +3353,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3378,339 +3378,6 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="211">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAC090"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9CDE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7E4BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4BD97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3D69B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB3A2C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D9E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC1DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBF1DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCE6F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCD5B5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC1DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBF1DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4429,6 +4096,339 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFAC090"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9CDE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7E4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC4BD97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3D69B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB3A2C7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC1DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCE6F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCD5B5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC1DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5303,387 +5303,387 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="29" style="7" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23" style="9" customWidth="1"/>
-    <col min="5" max="5" width="46" style="7" customWidth="1"/>
-    <col min="6" max="6" width="42.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="26" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="11.5" style="7" customWidth="1"/>
-    <col min="19" max="19" width="15" style="7" customWidth="1"/>
-    <col min="20" max="21" width="48" style="7" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="17" style="7" customWidth="1"/>
-    <col min="24" max="1025" width="11" style="10"/>
+    <col min="1" max="1" width="29" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.34765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.34765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.34765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.09765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.34765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.09765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="1" customWidth="1"/>
+    <col min="20" max="21" width="48" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.84765625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="1" customWidth="1"/>
+    <col min="24" max="1025" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="15" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="Z2" s="10" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="Z2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="Z4" s="10" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="Z4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="Z5" s="10" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="Z5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="Z6" s="10" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="Z6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="Z7" s="10" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="Z7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="Z8" s="10" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="Z8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="R9" s="7" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="R9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z9" s="10" t="s">
+      <c r="Z9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="Z10" s="10" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="Z10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" ht="31.5">
-      <c r="A12" s="7" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="31.2">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="31.2">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="31.5">
-      <c r="A14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
-        <v>202</v>
+      <c r="A19" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5948,187 +5948,187 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C18">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="143" priority="1">
       <formula>$A16="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C18">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="142" priority="2">
       <formula>$A16="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C18">
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="141" priority="3">
       <formula>OR(AND(LEFT($A16, 16)="select_multiple ", LEN($A16)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A16, 17)))), AND(LEFT($A16, 11)="select_one ", LEN($A16)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A16, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B18">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="140" priority="4">
       <formula>OR($A16="audio audit", $A16="text audit", $A16="speed violations count", $A16="speed violations list", $A16="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C18">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="139" priority="5">
       <formula>$A16="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="138" priority="6">
       <formula>$A16="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="137" priority="7">
       <formula>OR($A16="geopoint", $A16="geoshape", $A16="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B18">
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="136" priority="8">
       <formula>OR($A16="calculate", $A16="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C18">
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="135" priority="9">
       <formula>OR($A16="date", $A16="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C18">
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="134" priority="10">
       <formula>$A16="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C18">
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="133" priority="11">
       <formula>OR($A16="audio", $A16="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B18">
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="132" priority="12">
       <formula>$A16="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B18">
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="131" priority="13">
       <formula>OR(AND(LEFT($A16, 14)="sensor_stream ", LEN($A16)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A16, 15)))), AND(LEFT($A16, 17)="sensor_statistic ", LEN($A16)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A16, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18 F16:F18">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="130" priority="14">
       <formula>$A16="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:O18 I16:I18">
-    <cfRule type="expression" dxfId="30" priority="15">
+    <cfRule type="expression" dxfId="129" priority="15">
       <formula>$A16="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18 B16:D18">
-    <cfRule type="expression" dxfId="29" priority="16">
+    <cfRule type="expression" dxfId="128" priority="16">
       <formula>$A16="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H18 B16:D18">
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="127" priority="17">
       <formula>$A16="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H18 B16:D18">
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="126" priority="18">
       <formula>$A16="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="125" priority="19">
       <formula>OR(AND(LEFT($A16, 16)="select_multiple ", LEN($A16)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A16, 17)))), AND(LEFT($A16, 11)="select_one ", LEN($A16)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A16, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="124" priority="20">
       <formula>OR($A16="audio audit", $A16="text audit", $A16="speed violations count", $A16="speed violations list", $A16="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="123" priority="21">
       <formula>OR($A16="calculate", $A16="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="122" priority="22">
       <formula>OR($A16="date", $A16="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="121" priority="23">
       <formula>$A16="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:W18">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="120" priority="24">
       <formula>OR(AND(LEFT($A16, 14)="sensor_stream ", LEN($A16)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A16, 15)))), AND(LEFT($A16, 17)="sensor_statistic ", LEN($A16)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A16, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="119" priority="25">
       <formula>$A16="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="118" priority="26">
       <formula>OR($A16="audio", $A16="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="117" priority="27">
       <formula>$A16="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="116" priority="28">
       <formula>OR($A16="date", $A16="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="115" priority="29">
       <formula>OR($A16="calculate", $A16="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="30">
+    <cfRule type="expression" dxfId="114" priority="30">
       <formula>$A16="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="31">
+    <cfRule type="expression" dxfId="113" priority="31">
       <formula>$A16="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="32">
+    <cfRule type="expression" dxfId="112" priority="32">
       <formula>OR($A16="geopoint", $A16="geoshape", $A16="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="33">
+    <cfRule type="expression" dxfId="111" priority="33">
       <formula>OR($A16="audio audit", $A16="text audit", $A16="speed violations count", $A16="speed violations list", $A16="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="34">
+    <cfRule type="expression" dxfId="110" priority="34">
       <formula>OR($A16="username", $A16="phonenumber", $A16="start", $A16="end", $A16="deviceid", $A16="subscriberid", $A16="simserial", $A16="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="35">
+    <cfRule type="expression" dxfId="109" priority="35">
       <formula>OR(AND(LEFT($A16, 16)="select_multiple ", LEN($A16)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A16, 17)))), AND(LEFT($A16, 11)="select_one ", LEN($A16)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A16, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="36">
+    <cfRule type="expression" dxfId="108" priority="36">
       <formula>$A16="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="37">
+    <cfRule type="expression" dxfId="107" priority="37">
       <formula>$A16="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="38">
+    <cfRule type="expression" dxfId="106" priority="38">
       <formula>$A16="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="39">
+    <cfRule type="expression" dxfId="105" priority="39">
       <formula>$A16="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="40">
+    <cfRule type="expression" dxfId="104" priority="40">
       <formula>$A16="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="41">
+    <cfRule type="expression" dxfId="103" priority="41">
       <formula>$A16="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="102" priority="42">
       <formula>$A16="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="101" priority="43">
       <formula>OR(AND(LEFT($A16, 14)="sensor_stream ", LEN($A16)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A16, 15)))), AND(LEFT($A16, 17)="sensor_statistic ", LEN($A16)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A16, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="1" priority="44">
+    <cfRule type="expression" dxfId="100" priority="44">
       <formula>OR(AND(LEFT($A17, 14)="sensor_stream ", LEN($A17)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A17, 15)))), AND(LEFT($A17, 17)="sensor_statistic ", LEN($A17)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A17, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N18">
-    <cfRule type="expression" dxfId="0" priority="45">
+    <cfRule type="expression" dxfId="99" priority="45">
       <formula>OR($A17="calculate", $A17="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6146,57 +6146,57 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="16" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="16"/>
-    <col min="6" max="1025" width="10.875" style="10"/>
+    <col min="1" max="1" width="15.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="39.59765625" style="10" customWidth="1"/>
+    <col min="4" max="5" width="10.84765625" style="10"/>
+    <col min="6" max="1025" width="10.84765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="16" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2000">
-    <cfRule type="expression" dxfId="143" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>NOT($A2=$A1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6213,51 +6213,51 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="3" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="13.34765625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="C2" s="10" t="str">
+        <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
+        <v>2003131238</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="16" t="str">
-        <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2002281046</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="16" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6274,3793 +6274,3793 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="36" style="23" customWidth="1"/>
+    <col min="3" max="3" width="36" style="17" customWidth="1"/>
     <col min="4" max="30" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="1:30" ht="97" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="44"/>
+    </row>
+    <row r="5" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:30" ht="96.95" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" spans="1:30" s="15" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="19" customFormat="1" ht="187.2">
+      <c r="A6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="22" customFormat="1">
+      <c r="A8" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+    </row>
+    <row r="10" spans="1:30" s="25" customFormat="1">
+      <c r="A10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+    </row>
+    <row r="11" spans="1:30" s="25" customFormat="1">
+      <c r="A11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+    </row>
+    <row r="12" spans="1:30" s="25" customFormat="1">
+      <c r="A12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+    </row>
+    <row r="13" spans="1:30" s="25" customFormat="1">
+      <c r="A13" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+    </row>
+    <row r="14" spans="1:30" s="25" customFormat="1" ht="46.8">
+      <c r="A14" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+    </row>
+    <row r="15" spans="1:30" s="25" customFormat="1" ht="31.2">
+      <c r="A15" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+    </row>
+    <row r="16" spans="1:30" s="25" customFormat="1" ht="46.8">
+      <c r="A16" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+    </row>
+    <row r="17" spans="1:30" s="25" customFormat="1" ht="46.8">
+      <c r="A17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+    </row>
+    <row r="18" spans="1:30" s="25" customFormat="1" ht="46.8">
+      <c r="A18" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+    </row>
+    <row r="19" spans="1:30" s="25" customFormat="1" ht="31.2">
+      <c r="A19" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+    </row>
+    <row r="20" spans="1:30" s="25" customFormat="1" ht="31.2">
+      <c r="A20" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+    </row>
+    <row r="21" spans="1:30" s="25" customFormat="1" ht="46.8">
+      <c r="A21" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+    </row>
+    <row r="22" spans="1:30" s="25" customFormat="1" ht="62.4">
+      <c r="A22" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+    </row>
+    <row r="23" spans="1:30" s="25" customFormat="1" ht="78">
+      <c r="A23" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+    </row>
+    <row r="24" spans="1:30" s="25" customFormat="1" ht="62.4">
+      <c r="A24" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+    </row>
+    <row r="25" spans="1:30" s="25" customFormat="1" ht="62.4">
+      <c r="A25" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+    </row>
+    <row r="26" spans="1:30" s="25" customFormat="1" ht="62.4">
+      <c r="A26" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+    </row>
+    <row r="27" spans="1:30" s="25" customFormat="1" ht="62.4">
+      <c r="A27" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+    </row>
+    <row r="28" spans="1:30" s="25" customFormat="1" ht="78">
+      <c r="A28" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+    </row>
+    <row r="29" spans="1:30" s="25" customFormat="1" ht="46.8">
+      <c r="A29" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+    </row>
+    <row r="30" spans="1:30" s="25" customFormat="1" ht="31.2">
+      <c r="A30" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+    </row>
+    <row r="31" spans="1:30" s="25" customFormat="1" ht="46.8">
+      <c r="A31" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+    </row>
+    <row r="32" spans="1:30" s="25" customFormat="1" ht="46.8">
+      <c r="A32" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+    </row>
+    <row r="33" spans="1:30" s="25" customFormat="1" ht="62.4">
+      <c r="A33" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+    </row>
+    <row r="34" spans="1:30" s="25" customFormat="1" ht="62.4">
+      <c r="A34" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+    </row>
+    <row r="35" spans="1:30" s="25" customFormat="1" ht="62.4">
+      <c r="A35" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+    </row>
+    <row r="36" spans="1:30" s="25" customFormat="1" ht="62.4">
+      <c r="A36" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+    </row>
+    <row r="37" spans="1:30" s="25" customFormat="1" ht="78">
+      <c r="A37" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+    </row>
+    <row r="38" spans="1:30" s="25" customFormat="1">
+      <c r="A38" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+    </row>
+    <row r="39" spans="1:30" s="25" customFormat="1">
+      <c r="A39" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+    </row>
+    <row r="40" spans="1:30" s="25" customFormat="1" ht="31.2">
+      <c r="A40" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+    </row>
+    <row r="41" spans="1:30" s="25" customFormat="1">
+      <c r="A41" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+    </row>
+    <row r="42" spans="1:30" s="25" customFormat="1">
+      <c r="A42" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+    </row>
+    <row r="43" spans="1:30" s="25" customFormat="1">
+      <c r="A43" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+    </row>
+    <row r="44" spans="1:30" s="25" customFormat="1">
+      <c r="A44" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+    </row>
+    <row r="45" spans="1:30" s="25" customFormat="1">
+      <c r="A45" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="23"/>
+    </row>
+    <row r="46" spans="1:30" s="25" customFormat="1">
+      <c r="A46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="23"/>
+    </row>
+    <row r="47" spans="1:30" s="25" customFormat="1" ht="31.2">
+      <c r="A47" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
+    </row>
+    <row r="48" spans="1:30" s="25" customFormat="1" ht="31.2">
+      <c r="A48" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="23"/>
+    </row>
+    <row r="49" spans="1:30" s="25" customFormat="1" ht="31.2">
+      <c r="A49" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23"/>
+    </row>
+    <row r="50" spans="1:30" s="25" customFormat="1">
+      <c r="A50" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="23"/>
+      <c r="AD50" s="23"/>
+    </row>
+    <row r="51" spans="1:30" s="25" customFormat="1">
+      <c r="A51" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="23"/>
+    </row>
+    <row r="52" spans="1:30" s="25" customFormat="1" ht="31.2">
+      <c r="A52" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="23"/>
+    </row>
+    <row r="53" spans="1:30" s="25" customFormat="1">
+      <c r="A53" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23"/>
+    </row>
+    <row r="54" spans="1:30" s="25" customFormat="1">
+      <c r="A54" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="23"/>
+    </row>
+    <row r="55" spans="1:30" s="25" customFormat="1">
+      <c r="A55" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="23"/>
+    </row>
+    <row r="56" spans="1:30" s="25" customFormat="1">
+      <c r="A56" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="23"/>
+    </row>
+    <row r="57" spans="1:30" s="25" customFormat="1">
+      <c r="A57" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="23"/>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="23"/>
+      <c r="AD57" s="23"/>
+    </row>
+    <row r="58" spans="1:30" s="25" customFormat="1">
+      <c r="A58" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="23"/>
+    </row>
+    <row r="59" spans="1:30" s="25" customFormat="1">
+      <c r="A59" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="23"/>
+      <c r="AC59" s="23"/>
+      <c r="AD59" s="23"/>
+    </row>
+    <row r="60" spans="1:30" s="25" customFormat="1">
+      <c r="A60" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="23"/>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="23"/>
+      <c r="AD60" s="23"/>
+    </row>
+    <row r="61" spans="1:30" s="25" customFormat="1">
+      <c r="A61" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="23"/>
+      <c r="AB61" s="23"/>
+      <c r="AC61" s="23"/>
+      <c r="AD61" s="23"/>
+    </row>
+    <row r="62" spans="1:30" s="25" customFormat="1">
+      <c r="A62" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="23"/>
+      <c r="AA62" s="23"/>
+      <c r="AB62" s="23"/>
+      <c r="AC62" s="23"/>
+      <c r="AD62" s="23"/>
+    </row>
+    <row r="63" spans="1:30" s="25" customFormat="1">
+      <c r="A63" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="23"/>
+      <c r="AD63" s="23"/>
+    </row>
+    <row r="64" spans="1:30" s="25" customFormat="1">
+      <c r="A64" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="23"/>
+      <c r="AD64" s="23"/>
+    </row>
+    <row r="65" spans="1:30" s="25" customFormat="1">
+      <c r="A65" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="23"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="23"/>
+    </row>
+    <row r="66" spans="1:30" s="25" customFormat="1">
+      <c r="A66" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="23"/>
+    </row>
+    <row r="67" spans="1:30" s="25" customFormat="1">
+      <c r="A67" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="23"/>
+      <c r="Z67" s="23"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23"/>
+      <c r="AD67" s="23"/>
+    </row>
+    <row r="68" spans="1:30" s="25" customFormat="1">
+      <c r="A68" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23"/>
+      <c r="Y68" s="23"/>
+      <c r="Z68" s="23"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="23"/>
+      <c r="AC68" s="23"/>
+      <c r="AD68" s="23"/>
+    </row>
+    <row r="69" spans="1:30" s="25" customFormat="1">
+      <c r="A69" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="23"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="23"/>
+    </row>
+    <row r="70" spans="1:30" s="25" customFormat="1">
+      <c r="A70" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="23"/>
+      <c r="Z70" s="23"/>
+      <c r="AA70" s="23"/>
+      <c r="AB70" s="23"/>
+      <c r="AC70" s="23"/>
+      <c r="AD70" s="23"/>
+    </row>
+    <row r="71" spans="1:30" s="25" customFormat="1">
+      <c r="A71" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="23"/>
+      <c r="AD71" s="23"/>
+    </row>
+    <row r="72" spans="1:30" s="25" customFormat="1">
+      <c r="A72" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="23"/>
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="23"/>
+      <c r="AD72" s="23"/>
+    </row>
+    <row r="73" spans="1:30" s="25" customFormat="1">
+      <c r="A73" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="23"/>
+      <c r="Z73" s="23"/>
+      <c r="AA73" s="23"/>
+      <c r="AB73" s="23"/>
+      <c r="AC73" s="23"/>
+      <c r="AD73" s="23"/>
+    </row>
+    <row r="74" spans="1:30" s="25" customFormat="1">
+      <c r="A74" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="27">
+        <v>3</v>
+      </c>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="23"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="23"/>
+      <c r="AB74" s="23"/>
+      <c r="AC74" s="23"/>
+      <c r="AD74" s="23"/>
+    </row>
+    <row r="75" spans="1:30" s="25" customFormat="1">
+      <c r="A75" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="23"/>
+      <c r="Z75" s="23"/>
+      <c r="AA75" s="23"/>
+      <c r="AB75" s="23"/>
+      <c r="AC75" s="23"/>
+      <c r="AD75" s="23"/>
+    </row>
+    <row r="76" spans="1:30" s="25" customFormat="1">
+      <c r="A76" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="23"/>
+      <c r="Z76" s="23"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="23"/>
+      <c r="AD76" s="23"/>
+    </row>
+    <row r="77" spans="1:30" s="25" customFormat="1">
+      <c r="A77" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
+    </row>
+    <row r="78" spans="1:30" s="25" customFormat="1">
+      <c r="A78" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="23"/>
+      <c r="Z78" s="23"/>
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="23"/>
+      <c r="AD78" s="23"/>
+    </row>
+    <row r="79" spans="1:30" s="25" customFormat="1">
+      <c r="A79" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="23"/>
+      <c r="Z79" s="23"/>
+      <c r="AA79" s="23"/>
+      <c r="AB79" s="23"/>
+      <c r="AC79" s="23"/>
+      <c r="AD79" s="23"/>
+    </row>
+    <row r="80" spans="1:30" s="25" customFormat="1">
+      <c r="A80" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="23"/>
+      <c r="Z80" s="23"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="23"/>
+      <c r="AC80" s="23"/>
+      <c r="AD80" s="23"/>
+    </row>
+    <row r="81" spans="1:30" s="25" customFormat="1">
+      <c r="A81" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="23"/>
+      <c r="Z81" s="23"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="23"/>
+      <c r="AC81" s="23"/>
+      <c r="AD81" s="23"/>
+    </row>
+    <row r="83" spans="1:30">
+      <c r="A83" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" s="46"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
+    </row>
+    <row r="85" spans="1:30">
+      <c r="A85" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
+      <c r="A86" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="32">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="25" customFormat="1" ht="204.75">
-      <c r="A6" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="V6" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="W6" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB6" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC6" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD6" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="28" customFormat="1">
-      <c r="A8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-    </row>
-    <row r="10" spans="1:30" s="31" customFormat="1">
-      <c r="A10" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-    </row>
-    <row r="11" spans="1:30" s="31" customFormat="1">
-      <c r="A11" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-    </row>
-    <row r="12" spans="1:30" s="31" customFormat="1">
-      <c r="A12" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-    </row>
-    <row r="13" spans="1:30" s="31" customFormat="1">
-      <c r="A13" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-    </row>
-    <row r="14" spans="1:30" s="31" customFormat="1" ht="47.25">
-      <c r="A14" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-    </row>
-    <row r="15" spans="1:30" s="31" customFormat="1" ht="47.25">
-      <c r="A15" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-    </row>
-    <row r="16" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A16" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-    </row>
-    <row r="17" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A17" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-    </row>
-    <row r="18" spans="1:30" s="31" customFormat="1" ht="47.25">
-      <c r="A18" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-    </row>
-    <row r="19" spans="1:30" s="31" customFormat="1" ht="47.25">
-      <c r="A19" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-    </row>
-    <row r="20" spans="1:30" s="31" customFormat="1" ht="47.25">
-      <c r="A20" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-    </row>
-    <row r="21" spans="1:30" s="31" customFormat="1" ht="47.25">
-      <c r="A21" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-    </row>
-    <row r="22" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A22" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-    </row>
-    <row r="23" spans="1:30" s="31" customFormat="1" ht="78.75">
-      <c r="A23" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-    </row>
-    <row r="24" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A24" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-    </row>
-    <row r="25" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A25" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-    </row>
-    <row r="26" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A26" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-    </row>
-    <row r="27" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A27" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-    </row>
-    <row r="28" spans="1:30" s="31" customFormat="1" ht="78.75">
-      <c r="A28" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-    </row>
-    <row r="29" spans="1:30" s="31" customFormat="1" ht="47.25">
-      <c r="A29" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-    </row>
-    <row r="30" spans="1:30" s="31" customFormat="1" ht="31.5">
-      <c r="A30" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-    </row>
-    <row r="31" spans="1:30" s="31" customFormat="1" ht="47.25">
-      <c r="A31" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-    </row>
-    <row r="32" spans="1:30" s="31" customFormat="1" ht="47.25">
-      <c r="A32" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-    </row>
-    <row r="33" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A33" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-    </row>
-    <row r="34" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A34" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-    </row>
-    <row r="35" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A35" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-    </row>
-    <row r="36" spans="1:30" s="31" customFormat="1" ht="63">
-      <c r="A36" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-    </row>
-    <row r="37" spans="1:30" s="31" customFormat="1" ht="78.75">
-      <c r="A37" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-    </row>
-    <row r="38" spans="1:30" s="31" customFormat="1">
-      <c r="A38" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-    </row>
-    <row r="39" spans="1:30" s="31" customFormat="1">
-      <c r="A39" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-    </row>
-    <row r="40" spans="1:30" s="31" customFormat="1" ht="31.5">
-      <c r="A40" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-    </row>
-    <row r="41" spans="1:30" s="31" customFormat="1">
-      <c r="A41" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-    </row>
-    <row r="42" spans="1:30" s="31" customFormat="1">
-      <c r="A42" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-    </row>
-    <row r="43" spans="1:30" s="31" customFormat="1">
-      <c r="A43" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-    </row>
-    <row r="44" spans="1:30" s="31" customFormat="1">
-      <c r="A44" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-    </row>
-    <row r="45" spans="1:30" s="31" customFormat="1">
-      <c r="A45" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-    </row>
-    <row r="46" spans="1:30" s="31" customFormat="1">
-      <c r="A46" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-    </row>
-    <row r="47" spans="1:30" s="31" customFormat="1" ht="31.5">
-      <c r="A47" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-    </row>
-    <row r="48" spans="1:30" s="31" customFormat="1" ht="31.5">
-      <c r="A48" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-    </row>
-    <row r="49" spans="1:30" s="31" customFormat="1" ht="31.5">
-      <c r="A49" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-    </row>
-    <row r="50" spans="1:30" s="31" customFormat="1">
-      <c r="A50" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-    </row>
-    <row r="51" spans="1:30" s="31" customFormat="1">
-      <c r="A51" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-    </row>
-    <row r="52" spans="1:30" s="31" customFormat="1" ht="31.5">
-      <c r="A52" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-    </row>
-    <row r="53" spans="1:30" s="31" customFormat="1">
-      <c r="A53" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-    </row>
-    <row r="54" spans="1:30" s="31" customFormat="1">
-      <c r="A54" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="29"/>
-      <c r="AB54" s="29"/>
-      <c r="AC54" s="29"/>
-      <c r="AD54" s="29"/>
-    </row>
-    <row r="55" spans="1:30" s="31" customFormat="1">
-      <c r="A55" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
-    </row>
-    <row r="56" spans="1:30" s="31" customFormat="1">
-      <c r="A56" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="29"/>
-      <c r="AD56" s="29"/>
-    </row>
-    <row r="57" spans="1:30" s="31" customFormat="1">
-      <c r="A57" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
-      <c r="AD57" s="29"/>
-    </row>
-    <row r="58" spans="1:30" s="31" customFormat="1">
-      <c r="A58" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
-    </row>
-    <row r="59" spans="1:30" s="31" customFormat="1">
-      <c r="A59" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29"/>
-    </row>
-    <row r="60" spans="1:30" s="31" customFormat="1">
-      <c r="A60" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="29"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="29"/>
-      <c r="AD60" s="29"/>
-    </row>
-    <row r="61" spans="1:30" s="31" customFormat="1">
-      <c r="A61" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="29"/>
-    </row>
-    <row r="62" spans="1:30" s="31" customFormat="1">
-      <c r="A62" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="29"/>
-      <c r="AD62" s="29"/>
-    </row>
-    <row r="63" spans="1:30" s="31" customFormat="1">
-      <c r="A63" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="29"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29"/>
-    </row>
-    <row r="64" spans="1:30" s="31" customFormat="1">
-      <c r="A64" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="29"/>
-      <c r="AA64" s="29"/>
-      <c r="AB64" s="29"/>
-      <c r="AC64" s="29"/>
-      <c r="AD64" s="29"/>
-    </row>
-    <row r="65" spans="1:30" s="31" customFormat="1">
-      <c r="A65" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="29"/>
-      <c r="AC65" s="29"/>
-      <c r="AD65" s="29"/>
-    </row>
-    <row r="66" spans="1:30" s="31" customFormat="1">
-      <c r="A66" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="29"/>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
-      <c r="AD66" s="29"/>
-    </row>
-    <row r="67" spans="1:30" s="31" customFormat="1">
-      <c r="A67" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="29"/>
-      <c r="AA67" s="29"/>
-      <c r="AB67" s="29"/>
-      <c r="AC67" s="29"/>
-      <c r="AD67" s="29"/>
-    </row>
-    <row r="68" spans="1:30" s="31" customFormat="1">
-      <c r="A68" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
-      <c r="AA68" s="29"/>
-      <c r="AB68" s="29"/>
-      <c r="AC68" s="29"/>
-      <c r="AD68" s="29"/>
-    </row>
-    <row r="69" spans="1:30" s="31" customFormat="1">
-      <c r="A69" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="29"/>
-      <c r="AA69" s="29"/>
-      <c r="AB69" s="29"/>
-      <c r="AC69" s="29"/>
-      <c r="AD69" s="29"/>
-    </row>
-    <row r="70" spans="1:30" s="31" customFormat="1">
-      <c r="A70" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="29"/>
-      <c r="AA70" s="29"/>
-      <c r="AB70" s="29"/>
-      <c r="AC70" s="29"/>
-      <c r="AD70" s="29"/>
-    </row>
-    <row r="71" spans="1:30" s="31" customFormat="1">
-      <c r="A71" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29"/>
-      <c r="AC71" s="29"/>
-      <c r="AD71" s="29"/>
-    </row>
-    <row r="72" spans="1:30" s="31" customFormat="1">
-      <c r="A72" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="29"/>
-      <c r="AB72" s="29"/>
-      <c r="AC72" s="29"/>
-      <c r="AD72" s="29"/>
-    </row>
-    <row r="73" spans="1:30" s="31" customFormat="1">
-      <c r="A73" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="29"/>
-      <c r="AA73" s="29"/>
-      <c r="AB73" s="29"/>
-      <c r="AC73" s="29"/>
-      <c r="AD73" s="29"/>
-    </row>
-    <row r="74" spans="1:30" s="31" customFormat="1">
-      <c r="A74" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="33">
-        <v>3</v>
-      </c>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="29"/>
-      <c r="AA74" s="29"/>
-      <c r="AB74" s="29"/>
-      <c r="AC74" s="29"/>
-      <c r="AD74" s="29"/>
-    </row>
-    <row r="75" spans="1:30" s="31" customFormat="1">
-      <c r="A75" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="29"/>
-      <c r="AA75" s="29"/>
-      <c r="AB75" s="29"/>
-      <c r="AC75" s="29"/>
-      <c r="AD75" s="29"/>
-    </row>
-    <row r="76" spans="1:30" s="31" customFormat="1">
-      <c r="A76" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="29"/>
-      <c r="U76" s="29"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
-      <c r="Y76" s="29"/>
-      <c r="Z76" s="29"/>
-      <c r="AA76" s="29"/>
-      <c r="AB76" s="29"/>
-      <c r="AC76" s="29"/>
-      <c r="AD76" s="29"/>
-    </row>
-    <row r="77" spans="1:30" s="31" customFormat="1">
-      <c r="A77" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="29"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="29"/>
-      <c r="AA77" s="29"/>
-      <c r="AB77" s="29"/>
-      <c r="AC77" s="29"/>
-      <c r="AD77" s="29"/>
-    </row>
-    <row r="78" spans="1:30" s="31" customFormat="1">
-      <c r="A78" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="29"/>
-      <c r="AA78" s="29"/>
-      <c r="AB78" s="29"/>
-      <c r="AC78" s="29"/>
-      <c r="AD78" s="29"/>
-    </row>
-    <row r="79" spans="1:30" s="31" customFormat="1">
-      <c r="A79" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="29"/>
-      <c r="U79" s="29"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="29"/>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="29"/>
-      <c r="AA79" s="29"/>
-      <c r="AB79" s="29"/>
-      <c r="AC79" s="29"/>
-      <c r="AD79" s="29"/>
-    </row>
-    <row r="80" spans="1:30" s="31" customFormat="1">
-      <c r="A80" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
-      <c r="U80" s="29"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="29"/>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="29"/>
-      <c r="AA80" s="29"/>
-      <c r="AB80" s="29"/>
-      <c r="AC80" s="29"/>
-      <c r="AD80" s="29"/>
-    </row>
-    <row r="81" spans="1:30" s="31" customFormat="1">
-      <c r="A81" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="29"/>
-      <c r="U81" s="29"/>
-      <c r="V81" s="29"/>
-      <c r="W81" s="29"/>
-      <c r="X81" s="29"/>
-      <c r="Y81" s="29"/>
-      <c r="Z81" s="29"/>
-      <c r="AA81" s="29"/>
-      <c r="AB81" s="29"/>
-      <c r="AC81" s="29"/>
-      <c r="AD81" s="29"/>
-    </row>
-    <row r="83" spans="1:30">
-      <c r="A83" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="36"/>
-      <c r="Z83" s="36"/>
-      <c r="AA83" s="36"/>
-      <c r="AB83" s="36"/>
-      <c r="AC83" s="36"/>
-      <c r="AD83" s="36"/>
-    </row>
-    <row r="85" spans="1:30">
-      <c r="A85" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30">
-      <c r="A86" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B86" s="38" t="s">
+    </row>
+    <row r="87" spans="1:30">
+      <c r="A87" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="B87" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="D86" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30">
-      <c r="A87" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="B87" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="C87" s="39" t="str">
+      <c r="C87" s="33" t="str">
         <f>"3 - 2"</f>
         <v>3 - 2</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:30">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="D88" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
+      <c r="A89" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="B89" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="D88" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30">
-      <c r="A89" s="38" t="s">
+      <c r="C89" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="D89" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
+      <c r="A90" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="B90" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D89" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30">
-      <c r="A90" s="38" t="s">
+      <c r="C90" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="D90" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
+      <c r="A91" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="B91" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D90" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30">
-      <c r="A91" s="38" t="s">
+      <c r="C91" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="D91" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="C91" s="38" t="s">
+    </row>
+    <row r="92" spans="1:30">
+      <c r="A92" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="B92" s="32" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="92" spans="1:30">
-      <c r="A92" s="38" t="s">
+      <c r="C92" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="D92" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
+      <c r="A93" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="B93" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D92" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30">
-      <c r="A93" s="38" t="s">
+      <c r="C93" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="D93" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
+      <c r="A94" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="B94" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="D93" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30">
-      <c r="A94" s="38" t="s">
+      <c r="C94" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="D94" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
+      <c r="A95" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="B95" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30">
-      <c r="A95" s="38" t="s">
+      <c r="C95" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="D95" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
+      <c r="A96" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="C95" s="38" t="s">
+      <c r="B96" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D95" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30">
-      <c r="A96" s="38" t="s">
+      <c r="C96" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="D96" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="C96" s="38" t="s">
+      <c r="B97" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D96" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="38" t="s">
+      <c r="C97" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="D97" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="38" t="s">
+      <c r="B98" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D97" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="38" t="s">
+      <c r="C98" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="D98" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="38" t="s">
+      <c r="B99" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="D98" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="38" t="s">
+      <c r="C99" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="D99" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C99" s="38" t="s">
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="29"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="29"/>
+      <c r="B101" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="D99" s="38" t="s">
+      <c r="C101" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="29"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="29"/>
+      <c r="B102" s="34" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="35"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="35"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="35"/>
-      <c r="B101" s="37" t="s">
+      <c r="C102" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C101" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D101" s="35"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="35"/>
-      <c r="B102" s="40" t="s">
+      <c r="D102" s="29"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="29"/>
+      <c r="B103" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D103" s="29"/>
+    </row>
+    <row r="104" spans="1:4" ht="31.2">
+      <c r="A104" s="29"/>
+      <c r="B104" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C104" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="D102" s="35"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="35"/>
-      <c r="B103" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="D103" s="35"/>
-    </row>
-    <row r="104" spans="1:4" ht="31.5">
-      <c r="A104" s="35"/>
-      <c r="B104" s="41" t="s">
+      <c r="D104" s="29"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="29"/>
+      <c r="B105" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="C104" s="41" t="s">
+      <c r="C105" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="D104" s="35"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="35"/>
-      <c r="B105" s="41" t="s">
+      <c r="D105" s="29"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="29"/>
+      <c r="B106" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C106" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="35"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="35"/>
-      <c r="B106" s="41" t="s">
+      <c r="D106" s="29"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="29"/>
+      <c r="B107" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C107" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="D106" s="35"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="35"/>
-      <c r="B107" s="41" t="s">
+      <c r="D107" s="29"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="29"/>
+      <c r="B108" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C107" s="41" t="s">
+      <c r="C108" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D107" s="35"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="35"/>
-      <c r="B108" s="41" t="s">
+      <c r="D108" s="29"/>
+    </row>
+    <row r="109" spans="1:4" ht="46.8">
+      <c r="A109" s="29"/>
+      <c r="B109" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="C108" s="41" t="s">
+      <c r="C109" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="D108" s="35"/>
-    </row>
-    <row r="109" spans="1:4" ht="47.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="41" t="s">
+      <c r="D109" s="29"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="29"/>
+      <c r="B110" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C110" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="D109" s="35"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="35"/>
-      <c r="B110" s="41" t="s">
+      <c r="D110" s="29"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="29"/>
+      <c r="B111" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="C110" s="41" t="s">
+      <c r="C111" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D111" s="29"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="29"/>
+      <c r="B112" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="D110" s="35"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="35"/>
-      <c r="B111" s="41" t="s">
+      <c r="C112" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C111" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="D111" s="35"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="35"/>
-      <c r="B112" s="41" t="s">
+      <c r="D112" s="29"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="29"/>
+      <c r="B113" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="C112" s="41" t="s">
+      <c r="C113" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="D112" s="35"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="35"/>
-      <c r="B113" s="41" t="s">
+      <c r="D113" s="29"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="29"/>
+      <c r="B114" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C114" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="D113" s="35"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="35"/>
-      <c r="B114" s="41" t="s">
+      <c r="D114" s="29"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="29"/>
+      <c r="B115" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C115" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="D114" s="35"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="35"/>
-      <c r="B115" s="41" t="s">
+      <c r="D115" s="29"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="29"/>
+      <c r="B116" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="C115" s="41" t="s">
+      <c r="C116" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="D115" s="35"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="35"/>
-      <c r="B116" s="41" t="s">
+      <c r="D116" s="29"/>
+    </row>
+    <row r="117" spans="1:4" ht="31.2">
+      <c r="A117" s="29"/>
+      <c r="B117" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C117" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="D116" s="35"/>
-    </row>
-    <row r="117" spans="1:4" ht="31.5">
-      <c r="A117" s="35"/>
-      <c r="B117" s="41" t="s">
+      <c r="D117" s="29"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="29"/>
+      <c r="B118" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C117" s="41" t="s">
+      <c r="C118" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="D117" s="35"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="35"/>
-      <c r="B118" s="41" t="s">
+      <c r="D118" s="29"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="29"/>
+      <c r="B119" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="C118" s="41" t="s">
+      <c r="C119" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="D118" s="35"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="35"/>
-      <c r="B119" s="41" t="s">
+      <c r="D119" s="29"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="29"/>
+      <c r="B120" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="C119" s="41" t="s">
+      <c r="C120" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="D119" s="35"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="35"/>
-      <c r="B120" s="41" t="s">
+      <c r="D120" s="29"/>
+    </row>
+    <row r="121" spans="1:4" ht="31.2">
+      <c r="A121" s="29"/>
+      <c r="B121" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C120" s="41" t="s">
+      <c r="C121" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="D120" s="35"/>
-    </row>
-    <row r="121" spans="1:4" ht="31.5">
-      <c r="A121" s="35"/>
-      <c r="B121" s="41" t="s">
+      <c r="D121" s="29"/>
+    </row>
+    <row r="122" spans="1:4" ht="46.8">
+      <c r="A122" s="29"/>
+      <c r="B122" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C121" s="41" t="s">
+      <c r="C122" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="D121" s="35"/>
-    </row>
-    <row r="122" spans="1:4" ht="47.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="41" t="s">
+      <c r="D122" s="29"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="29"/>
+      <c r="B123" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="C122" s="41" t="s">
+      <c r="C123" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="D122" s="35"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="35"/>
-      <c r="B123" s="41" t="s">
+      <c r="D123" s="29"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="29"/>
+      <c r="B124" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C123" s="41" t="s">
+      <c r="C124" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D123" s="35"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="35"/>
-      <c r="B124" s="41" t="s">
+      <c r="D124" s="29"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="29"/>
+      <c r="B125" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="C124" s="41" t="s">
+      <c r="C125" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="D124" s="35"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="35"/>
-      <c r="B125" s="41" t="s">
+      <c r="D125" s="29"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="29"/>
+      <c r="B126" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="C125" s="41" t="s">
+      <c r="C126" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="D125" s="35"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="35"/>
-      <c r="B126" s="41" t="s">
+      <c r="D126" s="29"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="29"/>
+      <c r="B127" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="C126" s="41" t="s">
+      <c r="C127" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="D126" s="35"/>
-    </row>
-    <row r="127" spans="1:4" ht="31.5">
-      <c r="A127" s="35"/>
-      <c r="B127" s="41" t="s">
+      <c r="D127" s="29"/>
+    </row>
+    <row r="128" spans="1:4" ht="31.2">
+      <c r="A128" s="29"/>
+      <c r="B128" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C127" s="41" t="s">
+      <c r="C128" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="D127" s="35"/>
-    </row>
-    <row r="128" spans="1:4" ht="31.5">
-      <c r="A128" s="35"/>
-      <c r="B128" s="41" t="s">
+      <c r="D128" s="29"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="29"/>
+      <c r="B129" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="C128" s="41" t="s">
+      <c r="C129" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="D128" s="35"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="35"/>
-      <c r="B129" s="42" t="s">
+      <c r="D129" s="29"/>
+    </row>
+    <row r="130" spans="1:4" ht="31.2">
+      <c r="A130" s="29"/>
+      <c r="B130" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="C129" s="42" t="s">
+      <c r="C130" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130" s="29"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="29"/>
+      <c r="B131" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="D129" s="35"/>
-    </row>
-    <row r="130" spans="1:4" ht="31.5">
-      <c r="A130" s="35"/>
-      <c r="B130" s="42" t="s">
+      <c r="C131" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D131" s="29"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="29"/>
+      <c r="B132" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="C130" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D130" s="35"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="35"/>
-      <c r="B131" s="42" t="s">
+      <c r="C132" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="D132" s="29"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="29"/>
+      <c r="B133" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C131" s="42" t="s">
+      <c r="C133" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="D131" s="35"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="35"/>
-      <c r="B132" s="42" t="s">
+      <c r="D133" s="29"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="29"/>
+      <c r="B134" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="29"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="29"/>
+      <c r="B135" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="C132" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="D132" s="35"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="35"/>
-      <c r="B133" s="42" t="s">
+      <c r="C135" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="C133" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="D133" s="35"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="35"/>
-      <c r="B134" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C134" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D134" s="35"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="35"/>
-      <c r="B135" s="42" t="s">
+      <c r="D135" s="29"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="29"/>
+      <c r="B136" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="C135" s="42" t="s">
+      <c r="C136" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D136" s="29"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="29"/>
+      <c r="B137" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="D135" s="35"/>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="35"/>
-      <c r="B136" s="42" t="s">
+      <c r="C137" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="C136" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="D136" s="35"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="35"/>
-      <c r="B137" s="42" t="s">
+      <c r="D137" s="29"/>
+    </row>
+    <row r="138" spans="1:4" ht="31.2">
+      <c r="A138" s="29"/>
+      <c r="B138" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="C137" s="42" t="s">
+      <c r="C138" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="D137" s="35"/>
-    </row>
-    <row r="138" spans="1:4" ht="31.5">
-      <c r="A138" s="35"/>
-      <c r="B138" s="42" t="s">
+      <c r="D138" s="29"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="29"/>
+      <c r="B139" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="C138" s="42" t="s">
+      <c r="C139" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="D138" s="35"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="35"/>
-      <c r="B139" s="42" t="s">
+      <c r="D139" s="29"/>
+    </row>
+    <row r="140" spans="1:4" ht="31.2">
+      <c r="A140" s="29"/>
+      <c r="B140" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="C139" s="42" t="s">
+      <c r="C140" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="D139" s="35"/>
-    </row>
-    <row r="140" spans="1:4" ht="31.5">
-      <c r="A140" s="35"/>
-      <c r="B140" s="42" t="s">
+      <c r="D140" s="29"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="29"/>
+      <c r="B141" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="C140" s="42" t="s">
+      <c r="C141" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="D140" s="35"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="35"/>
-      <c r="B141" s="42" t="s">
+      <c r="D141" s="29"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="29"/>
+      <c r="B142" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="C141" s="42" t="s">
+      <c r="C142" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="D141" s="35"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="35"/>
-      <c r="B142" s="42" t="s">
+      <c r="D142" s="29"/>
+    </row>
+    <row r="143" spans="1:4" ht="31.2">
+      <c r="A143" s="29"/>
+      <c r="B143" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="C142" s="42" t="s">
+      <c r="C143" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="D142" s="35"/>
-    </row>
-    <row r="143" spans="1:4" ht="31.5">
-      <c r="A143" s="35"/>
-      <c r="B143" s="42" t="s">
+      <c r="D143" s="29"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="29"/>
+      <c r="B144" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="C143" s="42" t="s">
+      <c r="C144" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="D143" s="35"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="35"/>
-      <c r="B144" s="42" t="s">
+      <c r="D144" s="29"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="29"/>
+      <c r="B145" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="C144" s="42" t="s">
+      <c r="C145" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D144" s="35"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="35"/>
-      <c r="B145" s="42" t="s">
+      <c r="D145" s="29"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="29"/>
+      <c r="B146" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="C145" s="42" t="s">
+      <c r="C146" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="D145" s="35"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="35"/>
-      <c r="B146" s="42" t="s">
+      <c r="D146" s="29"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="29"/>
+      <c r="B147" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="C146" s="42" t="s">
+      <c r="C147" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="D146" s="35"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="35"/>
-      <c r="B147" s="42" t="s">
+      <c r="D147" s="29"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="29"/>
+      <c r="B148" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="C147" s="42" t="s">
+      <c r="C148" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="D147" s="35"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="35"/>
-      <c r="B148" s="42" t="s">
+      <c r="D148" s="29"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="29"/>
+      <c r="B149" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="C148" s="42" t="s">
+      <c r="C149" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="D148" s="35"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="35"/>
-      <c r="B149" s="42" t="s">
+      <c r="D149" s="29"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="29"/>
+      <c r="B150" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="C149" s="42" t="s">
+      <c r="C150" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D149" s="35"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="35"/>
-      <c r="B150" s="42" t="s">
+      <c r="D150" s="29"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="29"/>
+      <c r="B151" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="C150" s="42" t="s">
+      <c r="C151" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D150" s="35"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="35"/>
-      <c r="B151" s="42" t="s">
+      <c r="D151" s="29"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="29"/>
+      <c r="B152" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="C151" s="42" t="s">
+      <c r="C152" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D151" s="35"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="35"/>
-      <c r="B152" s="42" t="s">
+      <c r="D152" s="29"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="29"/>
+      <c r="B153" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="C152" s="42" t="s">
+      <c r="C153" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D152" s="35"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="35"/>
-      <c r="B153" s="42" t="s">
+      <c r="D153" s="29"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="29"/>
+      <c r="B154" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="C153" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="D153" s="35"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="35"/>
-      <c r="B154" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="D154" s="35"/>
+      <c r="C154" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D154" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10071,348 +10071,348 @@
     <mergeCell ref="A83:B83"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="142" priority="2">
+    <cfRule type="expression" dxfId="97" priority="2">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="141" priority="3">
+    <cfRule type="expression" dxfId="96" priority="3">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="140" priority="4">
+    <cfRule type="expression" dxfId="95" priority="4">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="139" priority="5">
+    <cfRule type="expression" dxfId="94" priority="5">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="138" priority="6">
+    <cfRule type="expression" dxfId="93" priority="6">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="137" priority="7">
+    <cfRule type="expression" dxfId="92" priority="7">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="136" priority="8">
+    <cfRule type="expression" dxfId="91" priority="8">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="135" priority="9">
+    <cfRule type="expression" dxfId="90" priority="9">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="10">
+    <cfRule type="expression" dxfId="89" priority="10">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="11">
+    <cfRule type="expression" dxfId="88" priority="11">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="132" priority="12">
+    <cfRule type="expression" dxfId="87" priority="12">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="131" priority="13">
+    <cfRule type="expression" dxfId="86" priority="13">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="130" priority="14">
+    <cfRule type="expression" dxfId="85" priority="14">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="129" priority="15">
+    <cfRule type="expression" dxfId="84" priority="15">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="128" priority="16">
+    <cfRule type="expression" dxfId="83" priority="16">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="17">
+    <cfRule type="expression" dxfId="82" priority="17">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="18">
+    <cfRule type="expression" dxfId="81" priority="18">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="19">
+    <cfRule type="expression" dxfId="80" priority="19">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="20">
+    <cfRule type="expression" dxfId="79" priority="20">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="21">
+    <cfRule type="expression" dxfId="78" priority="21">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="22">
+    <cfRule type="expression" dxfId="77" priority="22">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="23">
+    <cfRule type="expression" dxfId="76" priority="23">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="24">
+    <cfRule type="expression" dxfId="75" priority="24">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="25">
+    <cfRule type="expression" dxfId="74" priority="25">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="26">
+    <cfRule type="expression" dxfId="73" priority="26">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="27">
+    <cfRule type="expression" dxfId="72" priority="27">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="28">
+    <cfRule type="expression" dxfId="71" priority="28">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="29">
+    <cfRule type="expression" dxfId="70" priority="29">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="30">
+    <cfRule type="expression" dxfId="69" priority="30">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="31">
+    <cfRule type="expression" dxfId="68" priority="31">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="32">
+    <cfRule type="expression" dxfId="67" priority="32">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="33">
+    <cfRule type="expression" dxfId="66" priority="33">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="110" priority="34">
+    <cfRule type="expression" dxfId="65" priority="34">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="109" priority="35">
+    <cfRule type="expression" dxfId="64" priority="35">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="36">
+    <cfRule type="expression" dxfId="63" priority="36">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="37">
+    <cfRule type="expression" dxfId="62" priority="37">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="38">
+    <cfRule type="expression" dxfId="61" priority="38">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="39">
+    <cfRule type="expression" dxfId="60" priority="39">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="40">
+    <cfRule type="expression" dxfId="59" priority="40">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="41">
+    <cfRule type="expression" dxfId="58" priority="41">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="42">
+    <cfRule type="expression" dxfId="57" priority="42">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="43">
+    <cfRule type="expression" dxfId="56" priority="43">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="44">
+    <cfRule type="expression" dxfId="55" priority="44">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="45">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="46">
+    <cfRule type="expression" dxfId="53" priority="46">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="47">
+    <cfRule type="expression" dxfId="52" priority="47">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="48">
+    <cfRule type="expression" dxfId="51" priority="48">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="49">
+    <cfRule type="expression" dxfId="50" priority="49">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="50">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="51">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="52">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="91" priority="53">
+    <cfRule type="expression" dxfId="46" priority="53">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="90" priority="54">
+    <cfRule type="expression" dxfId="45" priority="54">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="89" priority="55">
+    <cfRule type="expression" dxfId="44" priority="55">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="88" priority="56">
+    <cfRule type="expression" dxfId="43" priority="56">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="57">
+    <cfRule type="expression" dxfId="42" priority="57">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="58">
+    <cfRule type="expression" dxfId="41" priority="58">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="85" priority="59">
+    <cfRule type="expression" dxfId="40" priority="59">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="84" priority="60">
+    <cfRule type="expression" dxfId="39" priority="60">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="83" priority="61">
+    <cfRule type="expression" dxfId="38" priority="61">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="82" priority="62">
+    <cfRule type="expression" dxfId="37" priority="62">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="81" priority="63">
+    <cfRule type="expression" dxfId="36" priority="63">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="80" priority="64">
+    <cfRule type="expression" dxfId="35" priority="64">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="65">
+    <cfRule type="expression" dxfId="34" priority="65">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="66">
+    <cfRule type="expression" dxfId="33" priority="66">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="67">
+    <cfRule type="expression" dxfId="32" priority="67">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="68">
+    <cfRule type="expression" dxfId="31" priority="68">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="69">
+    <cfRule type="expression" dxfId="30" priority="69">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="70">
+    <cfRule type="expression" dxfId="29" priority="70">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="71">
+    <cfRule type="expression" dxfId="28" priority="71">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="27" priority="72">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="73">
+    <cfRule type="expression" dxfId="26" priority="73">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="74">
+    <cfRule type="expression" dxfId="25" priority="74">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="75">
+    <cfRule type="expression" dxfId="24" priority="75">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="76">
+    <cfRule type="expression" dxfId="23" priority="76">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="77">
+    <cfRule type="expression" dxfId="22" priority="77">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="78">
+    <cfRule type="expression" dxfId="21" priority="78">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="79">
+    <cfRule type="expression" dxfId="20" priority="79">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="80">
+    <cfRule type="expression" dxfId="19" priority="80">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="81">
+    <cfRule type="expression" dxfId="18" priority="81">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="62" priority="82">
+    <cfRule type="expression" dxfId="17" priority="82">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="83">
+    <cfRule type="expression" dxfId="16" priority="83">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="84">
+    <cfRule type="expression" dxfId="15" priority="84">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="85">
+    <cfRule type="expression" dxfId="14" priority="85">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="86">
+    <cfRule type="expression" dxfId="13" priority="86">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="87">
+    <cfRule type="expression" dxfId="12" priority="87">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="88">
+    <cfRule type="expression" dxfId="11" priority="88">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="89">
+    <cfRule type="expression" dxfId="10" priority="89">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="90">
+    <cfRule type="expression" dxfId="9" priority="90">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="91">
+    <cfRule type="expression" dxfId="8" priority="91">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="92">
+    <cfRule type="expression" dxfId="7" priority="92">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="93">
+    <cfRule type="expression" dxfId="6" priority="93">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="94">
+    <cfRule type="expression" dxfId="5" priority="94">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="95">
+    <cfRule type="expression" dxfId="4" priority="95">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="96">
+    <cfRule type="expression" dxfId="3" priority="96">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="97">
+    <cfRule type="expression" dxfId="2" priority="97">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="98">
+    <cfRule type="expression" dxfId="1" priority="98">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="99">
+    <cfRule type="expression" dxfId="0" priority="99">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10429,73 +10429,73 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="99" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="44"/>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="99" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="G5" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="19" customFormat="1" ht="202.8">
+      <c r="A6" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="25" customFormat="1" ht="204.75">
-      <c r="A6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="D6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="F6" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="G6" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10516,103 +10516,103 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="16" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" ht="55" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="19" customFormat="1" ht="296.39999999999998">
+      <c r="A6" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="54.95" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B6" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="25" customFormat="1" ht="315">
-      <c r="A6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/extras/sample_form/slider_label_sample.xlsx
+++ b/extras/sample_form/slider_label_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\SurveyCTO Plugins\slider-labels\extras\sample_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFE1A4-924D-44D9-8251-3341DAE8C9DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2979BA81-D78B-4032-82A7-9FB9AE6D3578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -5306,7 +5308,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -6252,7 +6254,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2003131238</v>
+        <v>2003161856</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>

--- a/extras/sample_form/slider_label_sample.xlsx
+++ b/extras/sample_form/slider_label_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\SurveyCTO Plugins\slider-labels\extras\sample_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2979BA81-D78B-4032-82A7-9FB9AE6D3578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B3FABA-BE83-4C28-9A7F-968011C08964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3030,13 +3030,13 @@
     <t>custom-slider-label(min="0", max="10", markers="none")</t>
   </si>
   <si>
-    <t>custom-slider-label(min="0", max="10", markers="labels")</t>
-  </si>
-  <si>
-    <t>custom-slider-label(min="0", max="10", markers="yes")</t>
-  </si>
-  <si>
     <t>.&lt;=7</t>
+  </si>
+  <si>
+    <t>custom-slider-label(min="0", max="20", markers="yes")</t>
+  </si>
+  <si>
+    <t>custom-slider-label(min="0", max="30", markers="labels")</t>
   </si>
 </sst>
 </file>
@@ -3379,7 +3379,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="181">
     <dxf>
       <fill>
         <patternFill>
@@ -4433,13 +4433,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -4450,221 +4443,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAC090"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9CDE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7E4BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4BD97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3D69B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB3A2C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D9E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC1DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBF1DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCE6F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCD5B5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5305,10 +5086,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5560,7 +5341,7 @@
         <v>389</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>381</v>
@@ -5680,7 +5461,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5690,263 +5471,149 @@
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I11 F1:F11 F15 I15 B1:C15 B19:C1048576 I19:I1048576 F19:F1048576">
-    <cfRule type="expression" dxfId="210" priority="47">
+  <conditionalFormatting sqref="B1:C15 B19:C1048576 I19:I1048576 F19:F1048576 I1:I15 F1:F15">
+    <cfRule type="expression" dxfId="180" priority="47">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O11 I1:I11 I15 O15 B1:C15 B19:C1048576 O19:O1048576 I19:I1048576">
-    <cfRule type="expression" dxfId="209" priority="48">
+  <conditionalFormatting sqref="B1:C15 B19:C1048576 O19:O1048576 I19:I1048576 O1:O15 I1:I15">
+    <cfRule type="expression" dxfId="179" priority="48">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F11 B1:D11 B15:D15 F15 F19:F1048576 B19:D1048576">
-    <cfRule type="expression" dxfId="208" priority="49">
+  <conditionalFormatting sqref="F19:F1048576 B19:D1048576 F1:F15 B1:D15">
+    <cfRule type="expression" dxfId="178" priority="49">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H11 B1:D11 B15:D15 G15:H15 G19:H1048576 B19:D1048576">
-    <cfRule type="expression" dxfId="207" priority="50">
+  <conditionalFormatting sqref="G19:H1048576 B19:D1048576 G1:H15 B1:D15">
+    <cfRule type="expression" dxfId="177" priority="50">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H11 B1:D11 B15:D15 G15:H15 G19:H1048576 B19:D1048576">
-    <cfRule type="expression" dxfId="206" priority="51">
+  <conditionalFormatting sqref="G19:H1048576 B19:D1048576 G1:H15 B1:D15">
+    <cfRule type="expression" dxfId="176" priority="51">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F11 F15 B1:C15 B19:C1048576 F19:F1048576">
-    <cfRule type="expression" dxfId="205" priority="52">
+  <conditionalFormatting sqref="B1:C15 B19:C1048576 F19:F1048576 F1:F15">
+    <cfRule type="expression" dxfId="175" priority="52">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F11 F15 B1:B15 B19:B1048576 F19:F1048576">
-    <cfRule type="expression" dxfId="204" priority="53">
+  <conditionalFormatting sqref="B1:B15 B19:B1048576 F19:F1048576 F1:F15">
+    <cfRule type="expression" dxfId="174" priority="53">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C15 B19:C1048576">
-    <cfRule type="expression" dxfId="203" priority="54">
+    <cfRule type="expression" dxfId="173" priority="54">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="55">
+    <cfRule type="expression" dxfId="172" priority="55">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="56">
+    <cfRule type="expression" dxfId="171" priority="56">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N11 N15 B1:B15 B19:B1048576 N19:N1048576">
-    <cfRule type="expression" dxfId="200" priority="57">
+  <conditionalFormatting sqref="N1:N11 B1:B15 B19:B1048576 N19:N1048576 N13:N15">
+    <cfRule type="expression" dxfId="170" priority="57">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F11 F15 B1:C15 B19:C1048576 F19:F1048576">
-    <cfRule type="expression" dxfId="199" priority="58">
+  <conditionalFormatting sqref="B1:C15 B19:C1048576 F19:F1048576 F1:F15">
+    <cfRule type="expression" dxfId="169" priority="58">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F11 F15 B1:C15 B19:C1048576 F19:F1048576">
-    <cfRule type="expression" dxfId="198" priority="59">
+  <conditionalFormatting sqref="B1:C15 B19:C1048576 F19:F1048576 F1:F15">
+    <cfRule type="expression" dxfId="168" priority="59">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C15 B19:C1048576">
-    <cfRule type="expression" dxfId="197" priority="60">
+    <cfRule type="expression" dxfId="167" priority="60">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:W11 A15:W15 A19:W1048576">
-    <cfRule type="expression" dxfId="196" priority="61">
+  <conditionalFormatting sqref="A19:W1048576 A1:W15">
+    <cfRule type="expression" dxfId="166" priority="61">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="62">
+    <cfRule type="expression" dxfId="165" priority="62">
       <formula>$A1="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="63">
+    <cfRule type="expression" dxfId="164" priority="63">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="64">
+    <cfRule type="expression" dxfId="163" priority="64">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="65">
+    <cfRule type="expression" dxfId="162" priority="65">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="66">
+    <cfRule type="expression" dxfId="161" priority="66">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="67">
+    <cfRule type="expression" dxfId="160" priority="67">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="68">
+    <cfRule type="expression" dxfId="159" priority="68">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="69">
+    <cfRule type="expression" dxfId="158" priority="69">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="70">
+    <cfRule type="expression" dxfId="157" priority="70">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="71">
+    <cfRule type="expression" dxfId="156" priority="71">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="72">
+    <cfRule type="expression" dxfId="155" priority="72">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="73">
+    <cfRule type="expression" dxfId="154" priority="73">
       <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="74">
+    <cfRule type="expression" dxfId="153" priority="74">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="75">
+    <cfRule type="expression" dxfId="152" priority="75">
       <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="76">
+    <cfRule type="expression" dxfId="151" priority="76">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="77">
+    <cfRule type="expression" dxfId="150" priority="77">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="78">
+    <cfRule type="expression" dxfId="149" priority="78">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="79">
+    <cfRule type="expression" dxfId="148" priority="79">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B15 B19:B1048576">
-    <cfRule type="expression" dxfId="177" priority="80">
+    <cfRule type="expression" dxfId="147" priority="80">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F11 F15 B1:B15 B19:B1048576 F19:F1048576">
-    <cfRule type="expression" dxfId="176" priority="81">
+  <conditionalFormatting sqref="F1:F11 B1:B15 B19:B1048576 F19:F1048576 F13:F15">
+    <cfRule type="expression" dxfId="146" priority="81">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14 I12:I14 F12:F13">
-    <cfRule type="expression" dxfId="175" priority="82">
-      <formula>$A12="begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14 O12:O14 I12:I13">
-    <cfRule type="expression" dxfId="174" priority="83">
-      <formula>$A12="begin repeat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:D14 F12:F14 B12:D13">
-    <cfRule type="expression" dxfId="173" priority="84">
-      <formula>$A12="text"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:D14 G12:H14 B12:D13">
-    <cfRule type="expression" dxfId="172" priority="85">
-      <formula>$A12="integer"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:D14 G12:H14 B12:D13">
-    <cfRule type="expression" dxfId="171" priority="86">
-      <formula>$A12="decimal"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F14">
-    <cfRule type="expression" dxfId="170" priority="87">
-      <formula>OR(AND(LEFT($A12, 16)="select_multiple ", LEN($A12)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A12, 17)))), AND(LEFT($A12, 11)="select_one ", LEN($A12)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A12, 12)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F14">
-    <cfRule type="expression" dxfId="169" priority="88">
-      <formula>OR($A12="audio audit", $A12="text audit", $A12="speed violations count", $A12="speed violations list", $A12="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="expression" dxfId="168" priority="89">
+    <cfRule type="expression" dxfId="145" priority="89">
       <formula>OR($A12="calculate", $A12="calculate_here")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F14">
-    <cfRule type="expression" dxfId="167" priority="90">
-      <formula>OR($A12="date", $A12="datetime")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F14">
-    <cfRule type="expression" dxfId="166" priority="91">
-      <formula>$A12="image"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:W14">
-    <cfRule type="expression" dxfId="165" priority="92">
-      <formula>OR(AND(LEFT($A12, 14)="sensor_stream ", LEN($A12)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A12, 15)))), AND(LEFT($A12, 17)="sensor_statistic ", LEN($A12)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A12, 18)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="93">
-      <formula>$A12="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="94">
-      <formula>OR($A12="audio", $A12="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="95">
-      <formula>$A12="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="96">
-      <formula>OR($A12="date", $A12="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="97">
-      <formula>OR($A12="calculate", $A12="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="98">
-      <formula>$A12="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="99">
-      <formula>$A12="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="100">
-      <formula>OR($A12="geopoint", $A12="geoshape", $A12="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="101">
-      <formula>OR($A12="audio audit", $A12="text audit", $A12="speed violations count", $A12="speed violations list", $A12="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="102">
-      <formula>OR($A12="username", $A12="phonenumber", $A12="start", $A12="end", $A12="deviceid", $A12="subscriberid", $A12="simserial", $A12="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="103">
-      <formula>OR(AND(LEFT($A12, 16)="select_multiple ", LEN($A12)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A12, 17)))), AND(LEFT($A12, 11)="select_one ", LEN($A12)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A12, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="104">
-      <formula>$A12="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="105">
-      <formula>$A12="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="106">
-      <formula>$A12="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="107">
-      <formula>$A12="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="108">
-      <formula>$A12="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="109">
-      <formula>$A12="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="110">
-      <formula>$A12="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="146" priority="111">
+    <cfRule type="expression" dxfId="144" priority="111">
       <formula>OR(AND(LEFT($A12, 14)="sensor_stream ", LEN($A12)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A12, 15)))), AND(LEFT($A12, 17)="sensor_statistic ", LEN($A12)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A12, 18)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="145" priority="112">
-      <formula>OR(AND(LEFT($A13, 14)="sensor_stream ", LEN($A13)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A13, 15)))), AND(LEFT($A13, 17)="sensor_statistic ", LEN($A13)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A13, 18)))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N14">
-    <cfRule type="expression" dxfId="144" priority="113">
-      <formula>OR($A13="calculate", $A13="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C18">
@@ -6254,7 +5921,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2003161856</v>
+        <v>2003162013</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>

--- a/extras/sample_form/slider_label_sample.xlsx
+++ b/extras/sample_form/slider_label_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\SurveyCTO Plugins\slider-labels\extras\sample_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B3FABA-BE83-4C28-9A7F-968011C08964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9AAA83-49A7-4B14-9998-952C358AF7CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="397">
   <si>
     <t>type</t>
   </si>
@@ -3018,9 +3018,6 @@
     <t>Slide further up</t>
   </si>
   <si>
-    <t>Slider with constraint</t>
-  </si>
-  <si>
     <t>Slider with required value</t>
   </si>
   <si>
@@ -3033,10 +3030,30 @@
     <t>.&lt;=7</t>
   </si>
   <si>
-    <t>custom-slider-label(min="0", max="20", markers="yes")</t>
-  </si>
-  <si>
-    <t>custom-slider-label(min="0", max="30", markers="labels")</t>
+    <t>Slider with constraint 1</t>
+  </si>
+  <si>
+    <t>display_values</t>
+  </si>
+  <si>
+    <t>Value 1 = ${custom_value1}
+Value 2 = ${custom_value2}
+Value 3 = ${custom_value3}
+Value 4 = ${custom_value4}
+Value 5 = ${custom_value5}
+Value 6 = ${custom_value6}</t>
+  </si>
+  <si>
+    <t>custom-slider-label(min="0", max="20", markers="yes", step=2)</t>
+  </si>
+  <si>
+    <t>custom-slider-label(min="0", max="1", markers="none", step=0.1)</t>
+  </si>
+  <si>
+    <t>custom-slider-label(min="0", max="1", markers="labels", step=0.25)</t>
+  </si>
+  <si>
+    <t>custom-slider-label(min="0", max="10", markers="none", step=1, show="yes")</t>
   </si>
 </sst>
 </file>
@@ -5084,12 +5101,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK19"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5332,16 +5349,16 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>381</v>
@@ -5349,19 +5366,19 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>382</v>
@@ -5378,13 +5395,13 @@
         <v>378</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>384</v>
@@ -5427,7 +5444,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5444,12 +5461,12 @@
         <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>380</v>
@@ -5461,12 +5478,23 @@
         <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="93.6">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5921,7 +5949,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2003162013</v>
+        <v>2003191140</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>

--- a/extras/sample_form/slider_label_sample.xlsx
+++ b/extras/sample_form/slider_label_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\SurveyCTO Plugins\slider-labels\extras\sample_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9AAA83-49A7-4B14-9998-952C358AF7CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C0F681-7061-428C-9D93-4446B5808E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3053,7 +3053,7 @@
     <t>custom-slider-label(min="0", max="1", markers="labels", step=0.25)</t>
   </si>
   <si>
-    <t>custom-slider-label(min="0", max="10", markers="none", step=1, show="yes")</t>
+    <t>custom-slider-label(min="0", max="12", markers="none", step=1, show="yes")</t>
   </si>
 </sst>
 </file>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2003191140</v>
+        <v>2003241129</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
